--- a/tests/files/valid_without_product_group.xlsx
+++ b/tests/files/valid_without_product_group.xlsx
@@ -28,10 +28,10 @@
     <t>weight</t>
   </si>
   <si>
-    <t>selling price</t>
-  </si>
-  <si>
-    <t>buying price</t>
+    <t>selling price incl. vat</t>
+  </si>
+  <si>
+    <t>buying price excl. vat</t>
   </si>
   <si>
     <t>vat</t>

--- a/tests/files/valid_without_product_group.xlsx
+++ b/tests/files/valid_without_product_group.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\ExpansionDev\tests\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4266BA-579E-4FF2-9342-F6E3BB96A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>length</t>
   </si>
@@ -62,13 +68,16 @@
   </si>
   <si>
     <t>Television</t>
+  </si>
+  <si>
+    <t>ean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,28 +125,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +206,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,9 +275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,14 +451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +503,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -506,8 +547,11 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -547,8 +591,11 @@
       <c r="M3" t="s">
         <v>14</v>
       </c>
+      <c r="N3">
+        <v>12012</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -587,6 +634,9 @@
       </c>
       <c r="M4" t="s">
         <v>15</v>
+      </c>
+      <c r="N4">
+        <v>12122</v>
       </c>
     </row>
   </sheetData>

--- a/tests/files/valid_without_product_group.xlsx
+++ b/tests/files/valid_without_product_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\ExpansionDev\tests\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4266BA-579E-4FF2-9342-F6E3BB96A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9BA7A2-1CA6-416E-BC78-F7BC00323270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>length</t>
   </si>
@@ -59,15 +59,6 @@
   </si>
   <si>
     <t>product name</t>
-  </si>
-  <si>
-    <t>baby phone 3000</t>
-  </si>
-  <si>
-    <t>Soccer Ball</t>
-  </si>
-  <si>
-    <t>Television</t>
   </si>
   <si>
     <t>ean</t>
@@ -145,7 +136,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -455,7 +446,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +495,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -544,8 +535,8 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>13</v>
+      <c r="M2">
+        <v>3</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -588,8 +579,8 @@
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
+      <c r="M3">
+        <v>2</v>
       </c>
       <c r="N3">
         <v>12012</v>
@@ -632,8 +623,8 @@
       <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
+      <c r="M4">
+        <v>1</v>
       </c>
       <c r="N4">
         <v>12122</v>
